--- a/public/resources/template.xlsx
+++ b/public/resources/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelmaliy/dev/node/annual-report/public/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D330B74-1A85-FC40-A98D-99ABE30D53DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74444CD8-BE35-B743-8C34-2990F9A02472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="26820" windowHeight="16200" xr2:uid="{CBFE0543-5950-A24D-BA8B-FC120216AA7A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Transaction Date</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Stock Name</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -399,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223061BE-BCD2-A843-A224-97D6CF32FC57}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,6 +423,9 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/resources/template.xlsx
+++ b/public/resources/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelmaliy/dev/node/annual-report/public/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74444CD8-BE35-B743-8C34-2990F9A02472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27C7AC3-E256-D24B-89A0-87326EBB8E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="26820" windowHeight="16200" xr2:uid="{CBFE0543-5950-A24D-BA8B-FC120216AA7A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Transaction Date</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Market Currency</t>
   </si>
 </sst>
 </file>
@@ -402,15 +405,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223061BE-BCD2-A843-A224-97D6CF32FC57}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,6 +431,9 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/resources/template.xlsx
+++ b/public/resources/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelmaliy/dev/node/annual-report/public/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27C7AC3-E256-D24B-89A0-87326EBB8E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8B498F-4365-7B4F-ABD8-5F06DE443F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="26820" windowHeight="16200" xr2:uid="{CBFE0543-5950-A24D-BA8B-FC120216AA7A}"/>
   </bookViews>
@@ -60,9 +60,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -89,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,31 +416,36 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
